--- a/res/data/notes/item properties.xlsx
+++ b/res/data/notes/item properties.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5AAF97-E533-4335-8D2E-353814A90EFE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C30511-BC59-4433-82D8-BF04004AF908}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>representing code</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>tool</t>
+  </si>
+  <si>
+    <t>a currency item</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
   <dimension ref="A1:C457"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,7 +721,9 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>39</v>
       </c>

--- a/res/data/notes/item properties.xlsx
+++ b/res/data/notes/item properties.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C30511-BC59-4433-82D8-BF04004AF908}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622B9514-F9A2-4814-9131-C698D5874EA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>representing code</t>
   </si>
@@ -149,6 +149,21 @@
   </si>
   <si>
     <t>a currency item</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>luxury item</t>
+  </si>
+  <si>
+    <t>peasantry item</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>army items (weapons and armor)</t>
   </si>
 </sst>
 </file>
@@ -496,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C457"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,7 +691,9 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
@@ -685,7 +702,9 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>39</v>
       </c>
@@ -703,7 +722,9 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
@@ -712,7 +733,9 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
@@ -883,8 +906,14 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
